--- a/config_7.27/shoping_config_cjj.xlsx
+++ b/config_7.27/shoping_config_cjj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -10001,11 +10001,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AIG697"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H676" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W661" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G701" sqref="G701"/>
+      <selection pane="bottomRight" activeCell="AA669" sqref="AA668:AA669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60561,10 +60561,10 @@
         <v>99999999</v>
       </c>
       <c r="Z662" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA662" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA662" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB662" s="30">
         <v>44</v>
@@ -60632,10 +60632,10 @@
         <v>99999999</v>
       </c>
       <c r="Z663" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA663" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA663" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB663" s="30">
         <v>44</v>
@@ -60703,10 +60703,10 @@
         <v>99999999</v>
       </c>
       <c r="Z664" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA664" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA664" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB664" s="30">
         <v>44</v>
@@ -60774,10 +60774,10 @@
         <v>99999999</v>
       </c>
       <c r="Z665" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA665" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA665" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB665" s="30">
         <v>45</v>
@@ -60845,10 +60845,10 @@
         <v>99999999</v>
       </c>
       <c r="Z666" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA666" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA666" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB666" s="30">
         <v>45</v>
@@ -60916,10 +60916,10 @@
         <v>99999999</v>
       </c>
       <c r="Z667" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA667" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA667" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB667" s="30">
         <v>45</v>
@@ -60987,10 +60987,10 @@
         <v>99999999</v>
       </c>
       <c r="Z668" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA668" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA668" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB668" s="30">
         <v>46</v>
@@ -61058,10 +61058,10 @@
         <v>99999999</v>
       </c>
       <c r="Z669" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA669" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA669" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB669" s="30">
         <v>46</v>
@@ -61129,10 +61129,10 @@
         <v>99999999</v>
       </c>
       <c r="Z670" s="30">
+        <v>1627344000</v>
+      </c>
+      <c r="AA670" s="30">
         <v>1627919999</v>
-      </c>
-      <c r="AA670" s="30">
-        <v>1627344000</v>
       </c>
       <c r="AB670" s="30">
         <v>46</v>
@@ -63136,8 +63136,8 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -63145,7 +63145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>

--- a/config_7.27/shoping_config_cjj.xlsx
+++ b/config_7.27/shoping_config_cjj.xlsx
@@ -6759,9 +6759,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -6796,9 +6796,116 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6813,114 +6920,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6933,19 +6940,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7044,31 +7044,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7086,7 +7080,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7098,7 +7116,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7110,91 +7182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7245,15 +7245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7265,21 +7256,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7299,11 +7275,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7326,6 +7308,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -7339,10 +7339,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7351,109 +7351,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7462,22 +7462,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10217,11 +10217,11 @@
   <dimension ref="A1:AIG694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q664" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H649" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="$A671:$XFD682"/>
+      <selection pane="bottomRight" activeCell="H668" sqref="H668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -58988,8 +58988,8 @@
       <c r="B635" s="32">
         <v>10551</v>
       </c>
-      <c r="F635" s="21">
-        <v>1</v>
+      <c r="F635" s="32">
+        <v>0</v>
       </c>
       <c r="G635" s="32" t="s">
         <v>1616</v>
@@ -59056,8 +59056,8 @@
       <c r="B636" s="32">
         <v>10552</v>
       </c>
-      <c r="F636" s="21">
-        <v>1</v>
+      <c r="F636" s="32">
+        <v>0</v>
       </c>
       <c r="G636" s="32" t="s">
         <v>1616</v>
@@ -59124,8 +59124,8 @@
       <c r="B637" s="32">
         <v>10553</v>
       </c>
-      <c r="F637" s="21">
-        <v>1</v>
+      <c r="F637" s="32">
+        <v>0</v>
       </c>
       <c r="G637" s="32" t="s">
         <v>1616</v>
@@ -59192,8 +59192,8 @@
       <c r="B638" s="32">
         <v>10554</v>
       </c>
-      <c r="F638" s="21">
-        <v>1</v>
+      <c r="F638" s="32">
+        <v>0</v>
       </c>
       <c r="G638" s="32" t="s">
         <v>1616</v>
@@ -59260,8 +59260,8 @@
       <c r="B639" s="32">
         <v>10555</v>
       </c>
-      <c r="F639" s="21">
-        <v>1</v>
+      <c r="F639" s="32">
+        <v>0</v>
       </c>
       <c r="G639" s="32" t="s">
         <v>1616</v>
@@ -59328,8 +59328,8 @@
       <c r="B640" s="32">
         <v>10556</v>
       </c>
-      <c r="F640" s="21">
-        <v>1</v>
+      <c r="F640" s="32">
+        <v>0</v>
       </c>
       <c r="G640" s="32" t="s">
         <v>1616</v>
@@ -59396,8 +59396,8 @@
       <c r="B641" s="32">
         <v>10557</v>
       </c>
-      <c r="F641" s="21">
-        <v>1</v>
+      <c r="F641" s="32">
+        <v>0</v>
       </c>
       <c r="G641" s="32" t="s">
         <v>1616</v>
@@ -59464,8 +59464,8 @@
       <c r="B642" s="32">
         <v>10558</v>
       </c>
-      <c r="F642" s="21">
-        <v>1</v>
+      <c r="F642" s="32">
+        <v>0</v>
       </c>
       <c r="G642" s="32" t="s">
         <v>1616</v>
@@ -59532,8 +59532,8 @@
       <c r="B643" s="32">
         <v>10559</v>
       </c>
-      <c r="F643" s="21">
-        <v>1</v>
+      <c r="F643" s="32">
+        <v>0</v>
       </c>
       <c r="G643" s="32" t="s">
         <v>1616</v>
@@ -59600,8 +59600,8 @@
       <c r="B644" s="32">
         <v>10560</v>
       </c>
-      <c r="F644" s="21">
-        <v>1</v>
+      <c r="F644" s="32">
+        <v>0</v>
       </c>
       <c r="G644" s="32" t="s">
         <v>1616</v>
@@ -59668,8 +59668,8 @@
       <c r="B645" s="32">
         <v>10561</v>
       </c>
-      <c r="F645" s="21">
-        <v>1</v>
+      <c r="F645" s="32">
+        <v>0</v>
       </c>
       <c r="G645" s="32" t="s">
         <v>1616</v>
@@ -59736,8 +59736,8 @@
       <c r="B646" s="32">
         <v>10562</v>
       </c>
-      <c r="F646" s="21">
-        <v>1</v>
+      <c r="F646" s="32">
+        <v>0</v>
       </c>
       <c r="G646" s="32" t="s">
         <v>1616</v>
@@ -60301,7 +60301,7 @@
         <v>10571</v>
       </c>
       <c r="F655" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G655" s="32" t="s">
         <v>1113</v>
@@ -60363,7 +60363,7 @@
         <v>10572</v>
       </c>
       <c r="F656" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G656" s="32" t="s">
         <v>1117</v>
@@ -60425,7 +60425,7 @@
         <v>10573</v>
       </c>
       <c r="F657" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G657" s="32" t="s">
         <v>1120</v>
@@ -60487,7 +60487,7 @@
         <v>10574</v>
       </c>
       <c r="F658" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G658" s="32" t="s">
         <v>1124</v>
@@ -60549,7 +60549,7 @@
         <v>10575</v>
       </c>
       <c r="F659" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G659" s="32" t="s">
         <v>1127</v>
@@ -60611,7 +60611,7 @@
         <v>10576</v>
       </c>
       <c r="F660" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G660" s="32" t="s">
         <v>1130</v>
@@ -60673,7 +60673,7 @@
         <v>10577</v>
       </c>
       <c r="F661" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G661" s="32" t="s">
         <v>1134</v>
@@ -60734,7 +60734,7 @@
       <c r="B662" s="30">
         <v>10578</v>
       </c>
-      <c r="F662" s="30">
+      <c r="F662" s="32">
         <v>1</v>
       </c>
       <c r="G662" s="30" t="s">
@@ -60777,10 +60777,10 @@
         <v>99999999</v>
       </c>
       <c r="Z662" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA662" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB662" s="30">
         <v>44</v>
@@ -60805,7 +60805,7 @@
       <c r="B663" s="30">
         <v>10579</v>
       </c>
-      <c r="F663" s="30">
+      <c r="F663" s="32">
         <v>1</v>
       </c>
       <c r="G663" s="30" t="s">
@@ -60848,10 +60848,10 @@
         <v>99999999</v>
       </c>
       <c r="Z663" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA663" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB663" s="30">
         <v>44</v>
@@ -60876,7 +60876,7 @@
       <c r="B664" s="30">
         <v>10580</v>
       </c>
-      <c r="F664" s="30">
+      <c r="F664" s="32">
         <v>1</v>
       </c>
       <c r="G664" s="30" t="s">
@@ -60919,10 +60919,10 @@
         <v>99999999</v>
       </c>
       <c r="Z664" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA664" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB664" s="30">
         <v>44</v>
@@ -60947,7 +60947,7 @@
       <c r="B665" s="30">
         <v>10581</v>
       </c>
-      <c r="F665" s="30">
+      <c r="F665" s="32">
         <v>1</v>
       </c>
       <c r="G665" s="30" t="s">
@@ -60990,10 +60990,10 @@
         <v>99999999</v>
       </c>
       <c r="Z665" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA665" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB665" s="30">
         <v>45</v>
@@ -61018,7 +61018,7 @@
       <c r="B666" s="30">
         <v>10582</v>
       </c>
-      <c r="F666" s="30">
+      <c r="F666" s="32">
         <v>1</v>
       </c>
       <c r="G666" s="30" t="s">
@@ -61061,10 +61061,10 @@
         <v>99999999</v>
       </c>
       <c r="Z666" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA666" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB666" s="30">
         <v>45</v>
@@ -61089,7 +61089,7 @@
       <c r="B667" s="30">
         <v>10583</v>
       </c>
-      <c r="F667" s="30">
+      <c r="F667" s="32">
         <v>1</v>
       </c>
       <c r="G667" s="30" t="s">
@@ -61132,10 +61132,10 @@
         <v>99999999</v>
       </c>
       <c r="Z667" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA667" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB667" s="30">
         <v>45</v>
@@ -61160,7 +61160,7 @@
       <c r="B668" s="30">
         <v>10584</v>
       </c>
-      <c r="F668" s="30">
+      <c r="F668" s="32">
         <v>1</v>
       </c>
       <c r="G668" s="30" t="s">
@@ -61203,10 +61203,10 @@
         <v>99999999</v>
       </c>
       <c r="Z668" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA668" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB668" s="30">
         <v>46</v>
@@ -61231,7 +61231,7 @@
       <c r="B669" s="30">
         <v>10585</v>
       </c>
-      <c r="F669" s="30">
+      <c r="F669" s="32">
         <v>1</v>
       </c>
       <c r="G669" s="30" t="s">
@@ -61274,10 +61274,10 @@
         <v>99999999</v>
       </c>
       <c r="Z669" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA669" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB669" s="30">
         <v>46</v>
@@ -61302,7 +61302,7 @@
       <c r="B670" s="30">
         <v>10586</v>
       </c>
-      <c r="F670" s="30">
+      <c r="F670" s="32">
         <v>1</v>
       </c>
       <c r="G670" s="30" t="s">
@@ -61345,10 +61345,10 @@
         <v>99999999</v>
       </c>
       <c r="Z670" s="30">
-        <v>1626134400</v>
+        <v>1627919999</v>
       </c>
       <c r="AA670" s="30">
-        <v>1626710399</v>
+        <v>1627344000</v>
       </c>
       <c r="AB670" s="30">
         <v>46</v>
@@ -61373,8 +61373,8 @@
       <c r="B671" s="31">
         <v>10587</v>
       </c>
-      <c r="F671" s="31">
-        <v>1</v>
+      <c r="F671" s="32">
+        <v>0</v>
       </c>
       <c r="G671" s="31" t="s">
         <v>1645</v>
@@ -61444,8 +61444,8 @@
       <c r="B672" s="31">
         <v>10588</v>
       </c>
-      <c r="F672" s="31">
-        <v>1</v>
+      <c r="F672" s="32">
+        <v>0</v>
       </c>
       <c r="G672" s="31" t="s">
         <v>1645</v>
@@ -61515,8 +61515,8 @@
       <c r="B673" s="31">
         <v>10589</v>
       </c>
-      <c r="F673" s="31">
-        <v>1</v>
+      <c r="F673" s="32">
+        <v>0</v>
       </c>
       <c r="G673" s="31" t="s">
         <v>1645</v>
@@ -61586,8 +61586,8 @@
       <c r="B674" s="31">
         <v>10590</v>
       </c>
-      <c r="F674" s="31">
-        <v>1</v>
+      <c r="F674" s="32">
+        <v>0</v>
       </c>
       <c r="G674" s="31" t="s">
         <v>1645</v>
@@ -61657,8 +61657,8 @@
       <c r="B675" s="31">
         <v>10591</v>
       </c>
-      <c r="F675" s="31">
-        <v>1</v>
+      <c r="F675" s="32">
+        <v>0</v>
       </c>
       <c r="G675" s="31" t="s">
         <v>1645</v>
@@ -61728,8 +61728,8 @@
       <c r="B676" s="31">
         <v>10592</v>
       </c>
-      <c r="F676" s="31">
-        <v>1</v>
+      <c r="F676" s="32">
+        <v>0</v>
       </c>
       <c r="G676" s="31" t="s">
         <v>1645</v>
@@ -61799,8 +61799,8 @@
       <c r="B677" s="31">
         <v>10593</v>
       </c>
-      <c r="F677" s="31">
-        <v>1</v>
+      <c r="F677" s="32">
+        <v>0</v>
       </c>
       <c r="G677" s="31" t="s">
         <v>1645</v>
@@ -61870,8 +61870,8 @@
       <c r="B678" s="31">
         <v>10594</v>
       </c>
-      <c r="F678" s="31">
-        <v>1</v>
+      <c r="F678" s="32">
+        <v>0</v>
       </c>
       <c r="G678" s="31" t="s">
         <v>1645</v>
@@ -61941,8 +61941,8 @@
       <c r="B679" s="31">
         <v>10595</v>
       </c>
-      <c r="F679" s="31">
-        <v>1</v>
+      <c r="F679" s="32">
+        <v>0</v>
       </c>
       <c r="G679" s="31" t="s">
         <v>1645</v>
@@ -62012,8 +62012,8 @@
       <c r="B680" s="31">
         <v>10596</v>
       </c>
-      <c r="F680" s="31">
-        <v>1</v>
+      <c r="F680" s="32">
+        <v>0</v>
       </c>
       <c r="G680" s="31" t="s">
         <v>1645</v>
@@ -62083,8 +62083,8 @@
       <c r="B681" s="31">
         <v>10597</v>
       </c>
-      <c r="F681" s="31">
-        <v>1</v>
+      <c r="F681" s="32">
+        <v>0</v>
       </c>
       <c r="G681" s="31" t="s">
         <v>1645</v>
@@ -62154,8 +62154,8 @@
       <c r="B682" s="31">
         <v>10598</v>
       </c>
-      <c r="F682" s="31">
-        <v>1</v>
+      <c r="F682" s="32">
+        <v>0</v>
       </c>
       <c r="G682" s="31" t="s">
         <v>1645</v>
@@ -62228,8 +62228,8 @@
       <c r="C683" s="32"/>
       <c r="D683" s="32"/>
       <c r="E683" s="21"/>
-      <c r="F683" s="21">
-        <v>1</v>
+      <c r="F683" s="32">
+        <v>0</v>
       </c>
       <c r="G683" s="32" t="s">
         <v>1648</v>
@@ -62313,8 +62313,8 @@
       <c r="C684" s="32"/>
       <c r="D684" s="32"/>
       <c r="E684" s="21"/>
-      <c r="F684" s="21">
-        <v>1</v>
+      <c r="F684" s="32">
+        <v>0</v>
       </c>
       <c r="G684" s="32" t="s">
         <v>1648</v>
@@ -62398,8 +62398,8 @@
       <c r="C685" s="32"/>
       <c r="D685" s="32"/>
       <c r="E685" s="21"/>
-      <c r="F685" s="21">
-        <v>1</v>
+      <c r="F685" s="32">
+        <v>0</v>
       </c>
       <c r="G685" s="32" t="s">
         <v>1648</v>
@@ -62483,8 +62483,8 @@
       <c r="C686" s="32"/>
       <c r="D686" s="32"/>
       <c r="E686" s="21"/>
-      <c r="F686" s="21">
-        <v>1</v>
+      <c r="F686" s="32">
+        <v>0</v>
       </c>
       <c r="G686" s="32" t="s">
         <v>1648</v>
@@ -62568,8 +62568,8 @@
       <c r="C687" s="32"/>
       <c r="D687" s="32"/>
       <c r="E687" s="21"/>
-      <c r="F687" s="21">
-        <v>1</v>
+      <c r="F687" s="32">
+        <v>0</v>
       </c>
       <c r="G687" s="32" t="s">
         <v>1648</v>
@@ -62653,8 +62653,8 @@
       <c r="C688" s="32"/>
       <c r="D688" s="32"/>
       <c r="E688" s="21"/>
-      <c r="F688" s="21">
-        <v>1</v>
+      <c r="F688" s="32">
+        <v>0</v>
       </c>
       <c r="G688" s="32" t="s">
         <v>1648</v>
